--- a/Web/Uploads/files/ImportKhach_Template.xlsx
+++ b/Web/Uploads/files/ImportKhach_Template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="521">
   <si>
     <t>Mặt bằng</t>
   </si>
@@ -1592,16 +1592,10 @@
     <t>Ghi Chú</t>
   </si>
   <si>
-    <t xml:space="preserve">chị Thanh </t>
-  </si>
-  <si>
-    <t>0987987987</t>
-  </si>
-  <si>
     <t>Test import</t>
   </si>
   <si>
-    <t>Agribank</t>
+    <t>0987699687</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1686,7 +1680,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1993,14 +1991,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -2027,7 +2025,7 @@
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -2098,11 +2096,11 @@
       <c r="A2" t="s">
         <v>519</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>520</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D2" t="s">
         <v>504</v>
@@ -2111,55 +2109,52 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>456</v>
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>519</v>
       </c>
       <c r="H2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="O2" t="s">
+        <v>515</v>
+      </c>
+      <c r="P2" t="s">
         <v>516</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>515</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>516</v>
       </c>
       <c r="R2" t="s">
         <v>511</v>
       </c>
       <c r="S2">
-        <v>12000000</v>
-      </c>
-      <c r="T2">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="V2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -2173,37 +2168,37 @@
           <x14:formula1>
             <xm:f>MatBang!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
+          <xm:sqref>D2:D20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Quan!$B$1:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E2:E20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Duong!$B$1:$B$503</xm:f>
           </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
+          <xm:sqref>F2:F20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>YorN!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:Q2</xm:sqref>
+          <xm:sqref>O2:Q20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>NoiThatKhachThueCu!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>R2</xm:sqref>
+          <xm:sqref>R2:R20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CapDoTheoDoi!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>V2</xm:sqref>
+          <xm:sqref>V2:V20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Web/Uploads/files/ImportKhach_Template.xlsx
+++ b/Web/Uploads/files/ImportKhach_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="813"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="523">
   <si>
     <t>Mặt bằng</t>
   </si>
@@ -1592,10 +1592,16 @@
     <t>Ghi Chú</t>
   </si>
   <si>
-    <t>Test import</t>
-  </si>
-  <si>
-    <t>0987699687</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>6666</t>
   </si>
 </sst>
 </file>
@@ -1641,13 +1647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1677,14 +1683,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1745,7 +1751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1780,7 +1786,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1989,16 +1995,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -2022,73 +2028,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2096,14 +2102,8 @@
       <c r="A2" t="s">
         <v>519</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="C2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D2" t="s">
-        <v>504</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -2111,50 +2111,34 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
-        <v>519</v>
-      </c>
-      <c r="H2" t="s">
-        <v>519</v>
-      </c>
       <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2">
-        <v>14</v>
-      </c>
-      <c r="K2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>515</v>
-      </c>
-      <c r="P2" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>515</v>
-      </c>
-      <c r="R2" t="s">
-        <v>511</v>
-      </c>
-      <c r="S2">
-        <v>1200000</v>
-      </c>
-      <c r="V2" t="s">
-        <v>495</v>
-      </c>
-      <c r="W2" t="s">
-        <v>519</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
